--- a/strategy_wide/cluster_strategy_wide_5.xlsx
+++ b/strategy_wide/cluster_strategy_wide_5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B265D4F-C3DE-49CD-A6AF-86CA0EADCA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{2B265D4F-C3DE-49CD-A6AF-86CA0EADCA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF0B40A-0F54-4F7D-8AD5-6078D7B1403A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30810" yWindow="1200" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cluster_strategy_wide_5!$A$1:$U$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$U$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="33">
   <si>
     <t>InputID</t>
   </si>
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,15 +765,46 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="5"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -780,17 +813,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -799,20 +822,14 @@
         <color auto="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -821,7 +838,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,7 +858,295 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1085,654 +1390,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2045,11 +1702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5237,88 +4894,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U49">
+  <autoFilter ref="A1:U49" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U49">
       <sortCondition ref="U1:U49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="D2:H49">
-    <cfRule type="containsText" dxfId="79" priority="20" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="55" priority="20" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="21" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="22" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="53" priority="22" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="52" priority="23" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="24" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="51" priority="24" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="50" priority="25" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="26" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="27" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N49">
-    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T49">
-    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="10" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
@@ -5335,6 +4940,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N49">
+    <cfRule type="containsText" dxfId="47" priority="12" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="14" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -5347,6 +4978,32 @@
           <x14:id>{C3FE3CC5-8650-4E5D-9C21-08BC71B81567}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T49">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
@@ -5410,4 +5067,3364 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B6650B-6EBA-4F9E-9F71-1F4F6F85AFF0}">
+  <dimension ref="A1:U49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31710071</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31510207</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>31710061</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>31610124</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>31610158</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>31610028</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>31710023</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>31610016</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>31410196</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>31710135</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>31410011</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>31210101</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>31410170</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3161013</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>31710167</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>31510074</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>31710150</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>31710148</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>31510058</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>31710046</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>31710096</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>31610075</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>31710002</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>31610052</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>31710016</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>31610035</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>31510156</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>31610025</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31710106</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>13</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>31710145</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>31710117</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3161097</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" t="s">
+        <v>23</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>31410123</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>31710143</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>31510173</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42">
+        <v>11</v>
+      </c>
+      <c r="P42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>31510062</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>31710165</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44">
+        <v>12</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>31710156</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45" t="s">
+        <v>22</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>31710086</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>31610121</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47">
+        <v>11</v>
+      </c>
+      <c r="P47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>31710074</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>28</v>
+      </c>
+      <c r="R48" t="s">
+        <v>28</v>
+      </c>
+      <c r="S48" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48" t="s">
+        <v>28</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>31710042</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:U49" xr:uid="{83B6650B-6EBA-4F9E-9F71-1F4F6F85AFF0}"/>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:C49">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="34" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I49">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1DAC0620-BF72-421E-B52B-B35DD9FFB5EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:I49">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:N49">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O49">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:T49">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1DAC0620-BF72-421E-B52B-B35DD9FFB5EE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:I49</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>